--- a/Gemalto-CloudGate-Issues_20161205_O.xlsx
+++ b/Gemalto-CloudGate-Issues_20161205_O.xlsx
@@ -282,7 +282,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -334,6 +334,28 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -356,17 +378,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -400,17 +411,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -423,930 +423,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1653,11 +729,11 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,51 +977,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3:J9">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>ISNUMBER(SEARCH("Under",I3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I11">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"New firmware"</formula>
     </cfRule>
   </conditionalFormatting>
